--- a/xls/cloneConfig.xlsx
+++ b/xls/cloneConfig.xlsx
@@ -1,54 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FBG\Server\kbengine\fbgServer\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="0" windowWidth="27765" windowHeight="13650"/>
+    <workbookView xWindow="10230" yWindow="0" windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="@配置表" sheetId="1" r:id="rId1"/>
     <sheet name="代对表=" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>id[.!][funcInt]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>配置表:CloneConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡名字</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>关卡名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>阵型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>第一关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>第二关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -70,12 +65,13 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>[.][funcInt]</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -91,11 +87,36 @@
       </rPr>
       <t>D</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>formationTuple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[.][funcTupleInt]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>npcTuple[.][funcTupleInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5,12,13,14,15,16,22,24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
     </r>
     <r>
       <rPr>
@@ -105,256 +126,28 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>,3,4,5,6,7,8,9,10,11,12</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,3,4,5,6,7,8,9,10,11,13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>100,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>101</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>102</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>103</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>104</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,105,106,107,108,109,110</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>100,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>101</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>102</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>103</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>104</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,105,106,107,108,109,111</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>formationTuple</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[.][funcTupleInt]</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>npcTuple[.][funcTupleInt]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>pc的ID</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,10002,10003,10004,10004,10006,10007,10008,10009,10010,10011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,12,13,15,16,22,24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -417,87 +210,19 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -510,14 +235,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -552,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -587,7 +312,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -799,7 +524,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -807,7 +532,7 @@
     <col min="1" max="2" width="26.125" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="44.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="75" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.875" customWidth="1"/>
     <col min="7" max="7" width="19.625" customWidth="1"/>
     <col min="8" max="8" width="22.75" customWidth="1"/>
@@ -823,10 +548,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -842,7 +567,9 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -860,10 +587,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -882,10 +609,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -906,7 +633,7 @@
       <c r="J5" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -956,7 +683,7 @@
       <c r="C7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -969,7 +696,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/xls/cloneConfig.xlsx
+++ b/xls/cloneConfig.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FBG\Server\kbengine\fbgServer\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="27765" windowHeight="13650"/>
+    <workbookView xWindow="13020" yWindow="0" windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="@配置表" sheetId="1" r:id="rId1"/>
     <sheet name="代对表=" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>id[.!][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -136,6 +141,46 @@
   </si>
   <si>
     <t>1,2,3,5,6,12,13,15,16,22,24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyChallengeCount[][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>needBodyPower[][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗体力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日挑战次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>euro[][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp[][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweepLevel[][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>openLevel[][funcInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -223,6 +268,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -235,14 +348,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -277,7 +390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,7 +425,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,40 +634,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="75" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1"/>
-    <col min="8" max="8" width="22.75" customWidth="1"/>
-    <col min="9" max="9" width="25.375" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="1" max="4" width="26.125" customWidth="1"/>
+    <col min="5" max="5" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="33.875" customWidth="1"/>
+    <col min="9" max="9" width="21.75" customWidth="1"/>
+    <col min="10" max="10" width="36" customWidth="1"/>
+    <col min="11" max="11" width="75" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.875" customWidth="1"/>
+    <col min="13" max="13" width="19.625" customWidth="1"/>
+    <col min="14" max="14" width="22.75" customWidth="1"/>
+    <col min="15" max="15" width="25.375" customWidth="1"/>
+    <col min="16" max="16" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -562,80 +695,136 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>11111</v>
+      </c>
+      <c r="H3" s="1">
+        <v>11111</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>11111</v>
+      </c>
+      <c r="H4" s="1">
+        <v>11111</v>
+      </c>
+      <c r="I4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xls/cloneConfig.xlsx
+++ b/xls/cloneConfig.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="0" windowWidth="27765" windowHeight="13650"/>
+    <workbookView xWindow="23250" yWindow="0" windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="@配置表" sheetId="1" r:id="rId1"/>
     <sheet name="代对表=" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="34">
   <si>
     <t>id[.!][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -31,68 +31,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>配置表:CloneConfig</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>关卡名字</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>阵型</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ropID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[.][funcInt]</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>掉落包I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -140,10 +84,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,5,6,12,13,15,16,22,24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>dailyChallengeCount[][funcInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -181,6 +121,58 @@
   </si>
   <si>
     <t>openLevel[][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapterID[][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置表:CloneConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop[.][funcDropByPercent]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemID:num:percent; 概率 0-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2关</t>
+  </si>
+  <si>
+    <t>第3关</t>
+  </si>
+  <si>
+    <t>第4关</t>
+  </si>
+  <si>
+    <t>第5关</t>
+  </si>
+  <si>
+    <t>第6关</t>
+  </si>
+  <si>
+    <t>第7关</t>
+  </si>
+  <si>
+    <t>第8关</t>
+  </si>
+  <si>
+    <t>第9关</t>
+  </si>
+  <si>
+    <t>第10关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>106508:2:1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -253,13 +245,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -634,101 +625,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="26.125" customWidth="1"/>
-    <col min="5" max="5" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="33.875" customWidth="1"/>
-    <col min="9" max="9" width="21.75" customWidth="1"/>
-    <col min="10" max="10" width="36" customWidth="1"/>
-    <col min="11" max="11" width="75" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.875" customWidth="1"/>
-    <col min="13" max="13" width="19.625" customWidth="1"/>
-    <col min="14" max="14" width="22.75" customWidth="1"/>
-    <col min="15" max="15" width="25.375" customWidth="1"/>
-    <col min="16" max="16" width="19" customWidth="1"/>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="33.875" customWidth="1"/>
+    <col min="10" max="10" width="40.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36" customWidth="1"/>
+    <col min="12" max="12" width="75" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.875" customWidth="1"/>
+    <col min="14" max="14" width="19.625" customWidth="1"/>
+    <col min="15" max="15" width="22.75" customWidth="1"/>
+    <col min="16" max="16" width="25.375" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -737,38 +735,41 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1">
-        <v>11111</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <v>11111</v>
       </c>
-      <c r="I3" s="2">
-        <v>1</v>
+      <c r="I3" s="1">
+        <v>11111</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -777,49 +778,765 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>11111</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>11111</v>
       </c>
-      <c r="I4" s="2">
-        <v>2</v>
+      <c r="I4" s="1">
+        <v>11111</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>11111</v>
+      </c>
+      <c r="I5" s="1">
+        <v>11111</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>11111</v>
+      </c>
+      <c r="I6" s="1">
+        <v>11111</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>11111</v>
+      </c>
+      <c r="I7" s="1">
+        <v>11111</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>11111</v>
+      </c>
+      <c r="I8" s="1">
+        <v>11111</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>11111</v>
+      </c>
+      <c r="I9" s="1">
+        <v>11111</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>11111</v>
+      </c>
+      <c r="I10" s="1">
+        <v>11111</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>1009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>11111</v>
+      </c>
+      <c r="I11" s="1">
+        <v>11111</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>11111</v>
+      </c>
+      <c r="I12" s="1">
+        <v>11111</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>11111</v>
+      </c>
+      <c r="I13" s="1">
+        <v>11111</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>11111</v>
+      </c>
+      <c r="I14" s="1">
+        <v>11111</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>11111</v>
+      </c>
+      <c r="I15" s="1">
+        <v>11111</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>11111</v>
+      </c>
+      <c r="I16" s="1">
+        <v>11111</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>11111</v>
+      </c>
+      <c r="I17" s="1">
+        <v>11111</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>11111</v>
+      </c>
+      <c r="I18" s="1">
+        <v>11111</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>11111</v>
+      </c>
+      <c r="I19" s="1">
+        <v>11111</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>11111</v>
+      </c>
+      <c r="I20" s="1">
+        <v>11111</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>11111</v>
+      </c>
+      <c r="I21" s="1">
+        <v>11111</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>11111</v>
+      </c>
+      <c r="I22" s="1">
+        <v>11111</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -833,7 +1550,7 @@
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -846,7 +1563,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
